--- a/test/level_exp.xlsx
+++ b/test/level_exp.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\xubatools\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27735" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="player_level" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -60,18 +65,151 @@
   <si>
     <t>天数</t>
   </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sdf</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evel</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xp</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,345 +218,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -426,314 +249,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -773,6 +313,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>等级升级时长</a:t>
             </a:r>
           </a:p>
@@ -787,6 +328,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -796,13 +357,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.114070726915521"/>
-          <c:y val="0.192592592592593"/>
-          <c:w val="0.882"/>
+          <c:y val="0.19259259259259301"/>
+          <c:w val="0.88200000000000001"/>
           <c:h val="0.711666666666667"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -829,19 +390,16 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:strRef>
               <c:f>player_level!$A$2:$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
+                  <c:v>等级</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>level</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>等级</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -998,11 +556,11 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>player_level!$E$2:$E$53</c:f>
+              <c:f>player_level!$F$2:$F$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
-                <c:pt idx="1">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
@@ -1018,7 +576,7 @@
                   <c:v>241.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>288.333333333333</c:v>
+                  <c:v>288.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>353.125</c:v>
@@ -1030,130 +588,130 @@
                   <c:v>499.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>579.333333333333</c:v>
+                  <c:v>579.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>668.857142857143</c:v>
+                  <c:v>668.85714285714289</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>748.780487804878</c:v>
+                  <c:v>748.78048780487802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>855.869565217391</c:v>
+                  <c:v>855.86956521739125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>952.692307692308</c:v>
+                  <c:v>952.69230769230774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1039.49152542373</c:v>
+                  <c:v>1039.4915254237287</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1151.69230769231</c:v>
+                  <c:v>1151.6923076923076</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1253.47222222222</c:v>
+                  <c:v>1253.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1362.27848101266</c:v>
+                  <c:v>1362.2784810126582</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1477.79069767442</c:v>
+                  <c:v>1477.7906976744187</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1599.78494623656</c:v>
+                  <c:v>1599.7849462365591</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1728.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1845.37037037037</c:v>
+                  <c:v>1845.3703703703704</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1968.70689655172</c:v>
+                  <c:v>1968.7068965517242</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2114.9593495935</c:v>
+                  <c:v>2114.959349593496</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2249.84732824427</c:v>
+                  <c:v>2249.8473282442746</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2373.28571428571</c:v>
+                  <c:v>2373.2857142857142</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2519.25675675676</c:v>
+                  <c:v>2519.2567567567567</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2653.63057324841</c:v>
+                  <c:v>2653.6305732484075</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2810.24242424242</c:v>
+                  <c:v>2810.242424242424</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2955.05747126437</c:v>
+                  <c:v>2955.0574712643679</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3104.97267759563</c:v>
+                  <c:v>3104.9726775956283</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3259.89583333333</c:v>
+                  <c:v>3259.8958333333335</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3419.75124378109</c:v>
+                  <c:v>3419.7512437810947</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3567.48815165877</c:v>
+                  <c:v>3567.4881516587679</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3736.95454545455</c:v>
+                  <c:v>3736.9545454545455</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3894.17391304348</c:v>
+                  <c:v>3894.1739130434785</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4056.04166666667</c:v>
+                  <c:v>4056.0416666666665</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4222.48</c:v>
+                  <c:v>4222.4799999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4393.42307692308</c:v>
+                  <c:v>4393.4230769230771</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4568.81481481481</c:v>
+                  <c:v>4568.8148148148148</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4748.60714285714</c:v>
+                  <c:v>4748.6071428571431</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4932.75862068965</c:v>
+                  <c:v>4932.7586206896549</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5104.21926910299</c:v>
+                  <c:v>5104.2192691029904</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5279.9358974359</c:v>
+                  <c:v>5279.9358974358975</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5476.80124223603</c:v>
+                  <c:v>5476.8012422360252</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5660.84084084084</c:v>
+                  <c:v>5660.8408408408404</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5848.98255813954</c:v>
+                  <c:v>5848.9825581395353</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6041.18309859155</c:v>
+                  <c:v>6041.1830985915494</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6237.4043715847</c:v>
+                  <c:v>6237.4043715846992</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6420.58201058201</c:v>
+                  <c:v>6420.5820105820103</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6624.70437017995</c:v>
+                  <c:v>6624.7043701799485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,11 +726,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57271943"/>
-        <c:axId val="520217971"/>
+        <c:axId val="609096736"/>
+        <c:axId val="609088576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57271943"/>
+        <c:axId val="609096736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,14 +783,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520217971"/>
+        <c:crossAx val="609088576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520217971"/>
+        <c:axId val="609088576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,9 +845,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57271943"/>
+        <c:crossAx val="609096736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1326,6 +886,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1377,6 +938,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1388,28 +950,17 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.120033582089552"/>
-          <c:y val="0.110412541781099"/>
-          <c:w val="0.844083333333333"/>
-          <c:h val="0.710972222222222"/>
+          <c:y val="0.11041254178109899"/>
+          <c:w val="0.84408333333333296"/>
+          <c:h val="0.71097222222222201"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>player_level!$B$2:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>exp 升级到下一级经验</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1432,9 +983,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>player_level!$A$4:$A$53</c:f>
@@ -1754,6 +1302,29 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>player_level!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1763,11 +1334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="719179700"/>
-        <c:axId val="331051014"/>
+        <c:axId val="609094016"/>
+        <c:axId val="609088032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="719179700"/>
+        <c:axId val="609094016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,14 +1392,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331051014"/>
+        <c:crossAx val="609088032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331051014"/>
+        <c:axId val="609088032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,9 +1454,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719179700"/>
+        <c:crossAx val="609094016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1922,6 +1495,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1951,8 +1525,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.268402777777778"/>
-          <c:y val="0.0277777777777778"/>
+          <c:x val="0.26840277777777799"/>
+          <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1980,6 +1554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1990,29 +1565,18 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.113833333333333"/>
-          <c:y val="0.152777777777778"/>
-          <c:w val="0.882"/>
-          <c:h val="0.710972222222222"/>
+          <c:x val="0.11383333333333299"/>
+          <c:y val="0.15277777777777801"/>
+          <c:w val="0.88200000000000001"/>
+          <c:h val="0.71097222222222201"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="marker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>player_level!$D$2:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>addexp 单位时间获得经验</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -2035,12 +1599,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:yVal>
             <c:numRef>
-              <c:f>player_level!$D$4:$D$53</c:f>
+              <c:f>player_level!$E$4:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2198,6 +1759,29 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>player_level!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2207,11 +1791,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136938679"/>
-        <c:axId val="313045726"/>
+        <c:axId val="609097824"/>
+        <c:axId val="609098912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136938679"/>
+        <c:axId val="609097824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,14 +1848,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313045726"/>
+        <c:crossAx val="609098912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="313045726"/>
+        <c:axId val="609098912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,9 +1910,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136938679"/>
+        <c:crossAx val="609097824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2365,6 +1951,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4044,28 +3631,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>641350</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9356725" y="7188200"/>
-        <a:ext cx="4848225" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4077,25 +3664,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>272415</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>54610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9444990" y="568960"/>
-        <a:ext cx="5020310" cy="3009265"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4107,25 +3694,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>282575</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9455150" y="3949700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4390,77 +3977,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="6" width="12.625"/>
-    <col min="9" max="9" width="12.625"/>
-    <col min="14" max="14" width="12.625"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="7" width="12.625"/>
+    <col min="10" max="10" width="12.625"/>
+    <col min="15" max="15" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4471,20 +4061,23 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <f>FLOOR(POWER(A4-1,2)/SQRT(A4)+A4*1,1)</f>
         <v>1</v>
       </c>
-      <c r="E4">
-        <f>B4/D4</f>
+      <c r="F4">
+        <f>B4/E4</f>
         <v>180</v>
       </c>
-      <c r="F4">
-        <f>E4</f>
+      <c r="G4">
+        <f>F4</f>
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4495,20 +4088,20 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D36" si="1">FLOOR(POWER(A5-1,2)/SQRT(A5)+A5*1,1)</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E36" si="1">FLOOR(POWER(A5-1,2)/SQRT(A5)+A5*1,1)</f>
         <v>2</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E36" si="2">B5/D5</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F36" si="2">B5/E5</f>
         <v>185</v>
       </c>
-      <c r="F5">
-        <f>E5+F4</f>
+      <c r="G5">
+        <f>F5+G4</f>
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4519,20 +4112,20 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F53" si="3">E6+F5</f>
+      <c r="G6">
+        <f t="shared" ref="G6:G53" si="3">F6+G5</f>
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4543,20 +4136,20 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="2"/>
         <v>241.25</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>794.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4567,20 +4160,20 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="2"/>
-        <v>288.333333333333</v>
-      </c>
-      <c r="F8">
+        <v>288.33333333333331</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="3"/>
-        <v>1082.58333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1082.5833333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4591,20 +4184,20 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="2"/>
         <v>353.125</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="3"/>
-        <v>1435.70833333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>1435.7083333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4615,20 +4208,20 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="2"/>
         <v>431</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="3"/>
-        <v>1866.70833333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1866.7083333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4639,20 +4232,20 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="2"/>
         <v>499.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="3"/>
-        <v>2366.30833333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2366.3083333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4663,20 +4256,20 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="2"/>
-        <v>579.333333333333</v>
-      </c>
-      <c r="F12">
+        <v>579.33333333333337</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="3"/>
-        <v>2945.64166666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2945.6416666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4687,20 +4280,20 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="2"/>
-        <v>668.857142857143</v>
-      </c>
-      <c r="F13">
+        <v>668.85714285714289</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>3614.49880952381</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3614.4988095238095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4711,20 +4304,20 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="2"/>
-        <v>748.780487804878</v>
-      </c>
-      <c r="F14">
+        <v>748.78048780487802</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>4363.27929732869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>4363.2792973286878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4735,20 +4328,20 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="2"/>
-        <v>855.869565217391</v>
-      </c>
-      <c r="F15">
+        <v>855.86956521739125</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>5219.14886254608</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5219.1488625460788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4759,20 +4352,20 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="2"/>
-        <v>952.692307692308</v>
-      </c>
-      <c r="F16">
+        <v>952.69230769230774</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>6171.84117023839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>6171.8411702383864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4783,20 +4376,20 @@
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="2"/>
-        <v>1039.49152542373</v>
-      </c>
-      <c r="F17">
+        <v>1039.4915254237287</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>7211.33269566211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>7211.3326956621149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4807,20 +4400,20 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="2"/>
-        <v>1151.69230769231</v>
-      </c>
-      <c r="F18">
+        <v>1151.6923076923076</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>8363.02500335442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>8363.0250033544216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4831,20 +4424,20 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="2"/>
-        <v>1253.47222222222</v>
-      </c>
-      <c r="F19">
+        <v>1253.4722222222222</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>9616.49722557664</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>9616.4972255766443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4855,20 +4448,20 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="2"/>
-        <v>1362.27848101266</v>
-      </c>
-      <c r="F20">
+        <v>1362.2784810126582</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>10978.7757065893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>10978.775706589302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4879,20 +4472,20 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="2"/>
-        <v>1477.79069767442</v>
-      </c>
-      <c r="F21">
+        <v>1477.7906976744187</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="3"/>
-        <v>12456.5664042637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>12456.56640426372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4903,20 +4496,20 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="2"/>
-        <v>1599.78494623656</v>
-      </c>
-      <c r="F22">
+        <v>1599.7849462365591</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>14056.3513505003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>14056.351350500279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4927,20 +4520,20 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="2"/>
         <v>1728.1</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="3"/>
-        <v>15784.4513505003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>15784.45135050028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4951,20 +4544,20 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="2"/>
-        <v>1845.37037037037</v>
-      </c>
-      <c r="F24">
+        <v>1845.3703703703704</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
-        <v>17629.8217208706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>17629.821720870648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4975,20 +4568,20 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="2"/>
-        <v>1968.70689655172</v>
-      </c>
-      <c r="F25">
+        <v>1968.7068965517242</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="3"/>
-        <v>19598.5286174224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>19598.528617422373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4999,20 +4592,20 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="2"/>
-        <v>2114.9593495935</v>
-      </c>
-      <c r="F26">
+        <v>2114.959349593496</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>21713.4879670159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>21713.48796701587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5023,20 +4616,20 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="2"/>
-        <v>2249.84732824427</v>
-      </c>
-      <c r="F27">
+        <v>2249.8473282442746</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="3"/>
-        <v>23963.3352952601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>23963.335295260145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5047,20 +4640,20 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="2"/>
-        <v>2373.28571428571</v>
-      </c>
-      <c r="F28">
+        <v>2373.2857142857142</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="3"/>
-        <v>26336.6210095459</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>26336.621009545859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5071,20 +4664,20 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="2"/>
-        <v>2519.25675675676</v>
-      </c>
-      <c r="F29">
+        <v>2519.2567567567567</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="3"/>
-        <v>28855.8777663026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>28855.877766302616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5095,20 +4688,20 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="1"/>
         <v>157</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="2"/>
-        <v>2653.63057324841</v>
-      </c>
-      <c r="F30">
+        <v>2653.6305732484075</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="3"/>
-        <v>31509.508339551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>31509.508339551023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -5119,20 +4712,20 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="2"/>
-        <v>2810.24242424242</v>
-      </c>
-      <c r="F31">
+        <v>2810.242424242424</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="3"/>
-        <v>34319.7507637934</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>34319.750763793447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5143,20 +4736,20 @@
       <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="2"/>
-        <v>2955.05747126437</v>
-      </c>
-      <c r="F32">
+        <v>2955.0574712643679</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="3"/>
-        <v>37274.8082350578</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>37274.808235057812</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5167,27 +4760,27 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="2"/>
-        <v>3104.97267759563</v>
-      </c>
-      <c r="F33">
+        <v>3104.9726775956283</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="3"/>
-        <v>40379.7809126534</v>
-      </c>
-      <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33">
-        <f>F53*10</f>
-        <v>1378748.23580569</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>40379.780912653441</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f>G53*10</f>
+        <v>1378748.2358056949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5198,27 +4791,27 @@
       <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="2"/>
-        <v>3259.89583333333</v>
-      </c>
-      <c r="F34">
+        <v>3259.8958333333335</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="3"/>
-        <v>43639.6767459868</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34">
-        <f>I33/3600</f>
-        <v>382.985621057138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>43639.676745986777</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <f>J33/3600</f>
+        <v>382.98562105713751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5229,27 +4822,27 @@
       <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="2"/>
-        <v>3419.75124378109</v>
-      </c>
-      <c r="F35">
+        <v>3419.7512437810947</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="3"/>
-        <v>47059.4279897679</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35">
-        <f>I34/24</f>
-        <v>15.9577342107141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>47059.427989767872</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <f>J34/24</f>
+        <v>15.957734210714063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5260,20 +4853,20 @@
       <c r="C36">
         <v>4</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="2"/>
-        <v>3567.48815165877</v>
-      </c>
-      <c r="F36">
+        <v>3567.4881516587679</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="3"/>
-        <v>50626.9161414266</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>50626.916141426642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5284,20 +4877,20 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37:D53" si="5">FLOOR(POWER(A37-1,2)/SQRT(A37)+A37*1,1)</f>
+      <c r="E37">
+        <f t="shared" ref="E37:E53" si="5">FLOOR(POWER(A37-1,2)/SQRT(A37)+A37*1,1)</f>
         <v>220</v>
       </c>
-      <c r="E37">
-        <f t="shared" ref="E37:E53" si="6">B37/D37</f>
-        <v>3736.95454545455</v>
-      </c>
       <c r="F37">
+        <f t="shared" ref="F37:F53" si="6">B37/E37</f>
+        <v>3736.9545454545455</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="3"/>
-        <v>54363.8706868812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>54363.870686881186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5308,20 +4901,20 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="6"/>
-        <v>3894.17391304348</v>
-      </c>
-      <c r="F38">
+        <v>3894.1739130434785</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="3"/>
-        <v>58258.0445999247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>58258.044599924666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -5332,20 +4925,20 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="6"/>
-        <v>4056.04166666667</v>
-      </c>
-      <c r="F39">
+        <v>4056.0416666666665</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="3"/>
-        <v>62314.0862665913</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>62314.08626659133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5356,20 +4949,20 @@
       <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="6"/>
-        <v>4222.48</v>
-      </c>
-      <c r="F40">
+        <v>4222.4799999999996</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="3"/>
-        <v>66536.5662665913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>66536.566266591326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5380,20 +4973,20 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="6"/>
-        <v>4393.42307692308</v>
-      </c>
-      <c r="F41">
+        <v>4393.4230769230771</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="3"/>
-        <v>70929.9893435144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>70929.989343514404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5404,20 +4997,20 @@
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="6"/>
-        <v>4568.81481481481</v>
-      </c>
-      <c r="F42">
+        <v>4568.8148148148148</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="3"/>
-        <v>75498.8041583292</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>75498.804158329222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5428,20 +5021,20 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="5"/>
         <v>280</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="6"/>
-        <v>4748.60714285714</v>
-      </c>
-      <c r="F43">
+        <v>4748.6071428571431</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="3"/>
-        <v>80247.4113011864</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>80247.411301186366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5452,20 +5045,20 @@
       <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="6"/>
-        <v>4932.75862068965</v>
-      </c>
-      <c r="F44">
+        <v>4932.7586206896549</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="3"/>
-        <v>85180.169921876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>85180.169921876019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -5476,20 +5069,20 @@
       <c r="C45">
         <v>5</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="5"/>
         <v>301</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="6"/>
-        <v>5104.21926910299</v>
-      </c>
-      <c r="F45">
+        <v>5104.2192691029904</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="3"/>
-        <v>90284.389190979</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>90284.389190979011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -5500,20 +5093,20 @@
       <c r="C46">
         <v>5</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="6"/>
-        <v>5279.9358974359</v>
-      </c>
-      <c r="F46">
+        <v>5279.9358974358975</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="3"/>
-        <v>95564.3250884149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>95564.325088414902</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -5524,20 +5117,20 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="6"/>
-        <v>5476.80124223603</v>
-      </c>
-      <c r="F47">
+        <v>5476.8012422360252</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="3"/>
-        <v>101041.126330651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>101041.12633065092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -5548,20 +5141,20 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="6"/>
-        <v>5660.84084084084</v>
-      </c>
-      <c r="F48">
+        <v>5660.8408408408404</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="3"/>
-        <v>106701.967171492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>106701.96717149176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -5572,20 +5165,20 @@
       <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="6"/>
-        <v>5848.98255813954</v>
-      </c>
-      <c r="F49">
+        <v>5848.9825581395353</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="3"/>
-        <v>112550.949729631</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>112550.94972963131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -5596,20 +5189,20 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="5"/>
         <v>355</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="6"/>
-        <v>6041.18309859155</v>
-      </c>
-      <c r="F50">
+        <v>6041.1830985915494</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="3"/>
-        <v>118592.132828223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>118592.13282822285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -5620,20 +5213,20 @@
       <c r="C51">
         <v>5</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="5"/>
         <v>366</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="6"/>
-        <v>6237.4043715847</v>
-      </c>
-      <c r="F51">
+        <v>6237.4043715846992</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="3"/>
-        <v>124829.537199808</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>124829.53719980754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5644,20 +5237,20 @@
       <c r="C52">
         <v>6</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="5"/>
         <v>378</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="6"/>
-        <v>6420.58201058201</v>
-      </c>
-      <c r="F52">
+        <v>6420.5820105820103</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="3"/>
-        <v>131250.11921039</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>131250.11921038956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5668,22 +5261,335 @@
       <c r="C53">
         <v>6</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="5"/>
         <v>389</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="6"/>
-        <v>6624.70437017995</v>
-      </c>
-      <c r="F53">
+        <v>6624.7043701799485</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="3"/>
-        <v>137874.82358057</v>
+        <v>137874.8235805695</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>